--- a/Python 202207/datos.xlsx
+++ b/Python 202207/datos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Dropbox (Personal)\Python FEPON 2020\Clases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\NivelacionesAleph\Python 202207\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F466C091-381A-4A46-B0F3-A559A5C21B64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F7703-126F-43C6-91A0-86FB3C499871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4CD740A1-111C-4D57-BE48-170825416033}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD740A1-111C-4D57-BE48-170825416033}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Individuo</t>
   </si>
@@ -69,6 +70,12 @@
       </rPr>
       <t>2</t>
     </r>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -460,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,13 +477,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFEF4852-AD74-441D-AD6D-4F9B8AE8742B}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -498,7 +503,7 @@
         <v>1.2999999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +514,7 @@
         <v>1.6999999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -520,7 +525,7 @@
         <v>9.9999999999999201E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -531,7 +536,7 @@
         <v>1.7999999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -542,7 +547,7 @@
         <v>1.2999999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -553,7 +558,7 @@
         <v>0.29999999999999938</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -564,7 +569,7 @@
         <v>2.2999999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -575,7 +580,7 @@
         <v>0.29999999999999938</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -586,7 +591,7 @@
         <v>0.79999999999999938</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -597,7 +602,7 @@
         <v>-1.5000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -608,7 +613,7 @@
         <v>-1.3000000000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -619,7 +624,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -630,7 +635,7 @@
         <v>-1.1000000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -641,7 +646,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -652,7 +657,7 @@
         <v>-1.0000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -663,7 +668,7 @@
         <v>-1.7000000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -674,7 +679,7 @@
         <v>-1.7000000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -685,7 +690,7 @@
         <v>-2.3000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -696,7 +701,7 @@
         <v>1.899999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -705,6 +710,250 @@
       </c>
       <c r="C21" s="3">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5E80E1-99EE-42D6-B0D2-201365F91CE2}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.64950888872202095</v>
+      </c>
+      <c r="C2">
+        <v>5.7508163881185412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.29045356214603957</v>
+      </c>
+      <c r="C3">
+        <v>22.03844567107231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.62973621285051884</v>
+      </c>
+      <c r="C4">
+        <v>42.097532577876898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.41241853251777033</v>
+      </c>
+      <c r="C5">
+        <v>15.718261239112399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.45300106802652657</v>
+      </c>
+      <c r="C6">
+        <v>39.4545796336226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.35490500311422418</v>
+      </c>
+      <c r="C7">
+        <v>17.108513837271829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.15227432069167143</v>
+      </c>
+      <c r="C8">
+        <v>12433156130.275013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.20181020712813347</v>
+      </c>
+      <c r="C9">
+        <v>7.141481225501674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9.9318787815960013E-2</v>
+      </c>
+      <c r="C10">
+        <v>1026.9883966382438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.34352650551176461</v>
+      </c>
+      <c r="C11">
+        <v>401.72807992922088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.28573789155829876</v>
+      </c>
+      <c r="C12">
+        <v>18.67180825371814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.19404907593149201</v>
+      </c>
+      <c r="C13">
+        <v>660.61747171158288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.2981269781063412</v>
+      </c>
+      <c r="C14">
+        <v>4.0691739628413579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.17606824623910963</v>
+      </c>
+      <c r="C15">
+        <v>9.9236613293793212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.67426835391608497</v>
+      </c>
+      <c r="C16">
+        <v>44.713873578572546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.44528771698747638</v>
+      </c>
+      <c r="C17">
+        <v>4.0324021198017235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.1018145191255357</v>
+      </c>
+      <c r="C18">
+        <v>14.100815452627637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.4893655070210328E-2</v>
+      </c>
+      <c r="C19">
+        <v>9.8312584746315235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.54180927211136609</v>
+      </c>
+      <c r="C20">
+        <v>11.929932167598402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.32925488190163288</v>
+      </c>
+      <c r="C21">
+        <v>6.0729879412654917</v>
       </c>
     </row>
   </sheetData>
